--- a/usecases/MinimumWorkingExample/Data/Mischungen/2019_10_25_Klimek SVB Laborebene.xlsx
+++ b/usecases/MinimumWorkingExample/Data/Mischungen/2019_10_25_Klimek SVB Laborebene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GFS01\G21c\OE73Brand\04-FE\Vorhaben\Vh_7562_Betonabplatzungen\04_Projektkoordination\Betonagen\B4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afriemel\Documents\GithubMC\usecases\MinimumWorkingExample\Data\Mischungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EA2CE7-3990-4994-8A0B-8DB0F6A5398D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A84C2A-C172-4C6B-96A3-44CA61D3DF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sieblinie" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="166">
   <si>
     <t>Kornzusammensetzung von Zuschlaggemischen für Beton</t>
   </si>
@@ -541,6 +544,9 @@
   </si>
   <si>
     <t>André Klimek (7.3)</t>
+  </si>
+  <si>
+    <t>Zusatzstoff</t>
   </si>
 </sst>
 </file>
@@ -2253,120 +2259,6 @@
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2374,11 +2266,125 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5041,19 +5047,19 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="5" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="11" width="6.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="272" t="s">
+    <row r="1" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="275" t="s">
         <v>146</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -5080,8 +5086,8 @@
       <c r="Q1" s="41"/>
       <c r="R1" s="41"/>
     </row>
-    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="273"/>
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="276"/>
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -5106,7 +5112,7 @@
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
     </row>
-    <row r="3" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -5126,7 +5132,7 @@
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
     </row>
-    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -5152,7 +5158,7 @@
       <c r="Q4" s="41"/>
       <c r="R4" s="41"/>
     </row>
-    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -5180,7 +5186,7 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
@@ -5208,7 +5214,7 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
     </row>
-    <row r="7" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -5228,7 +5234,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
     </row>
-    <row r="8" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="181" t="s">
         <v>9</v>
       </c>
@@ -5257,7 +5263,7 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
     </row>
-    <row r="9" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -5277,7 +5283,7 @@
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
     </row>
-    <row r="10" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="224" t="s">
         <v>12</v>
       </c>
@@ -5303,7 +5309,7 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
     </row>
-    <row r="11" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="228" t="s">
         <v>15</v>
       </c>
@@ -5343,7 +5349,7 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
     </row>
-    <row r="12" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="232" t="s">
         <v>17</v>
       </c>
@@ -5383,7 +5389,7 @@
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="232" t="s">
         <v>19</v>
       </c>
@@ -5423,7 +5429,7 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
     </row>
-    <row r="14" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="232" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5469,7 @@
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
     </row>
-    <row r="15" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="232" t="s">
         <v>21</v>
       </c>
@@ -5503,7 +5509,7 @@
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
     </row>
-    <row r="16" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="232" t="s">
         <v>22</v>
       </c>
@@ -5543,7 +5549,7 @@
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
     </row>
-    <row r="17" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="232" t="s">
         <v>129</v>
       </c>
@@ -5583,7 +5589,7 @@
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
     </row>
-    <row r="18" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="232" t="s">
         <v>23</v>
       </c>
@@ -5623,7 +5629,7 @@
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="228"/>
       <c r="B19" s="229"/>
       <c r="C19" s="230"/>
@@ -5643,7 +5649,7 @@
       <c r="Q19" s="41"/>
       <c r="R19" s="41"/>
     </row>
-    <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="141"/>
       <c r="B20" s="141"/>
       <c r="C20" s="141"/>
@@ -5663,7 +5669,7 @@
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
     </row>
-    <row r="21" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="242" t="s">
         <v>24</v>
       </c>
@@ -5685,7 +5691,7 @@
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
     </row>
-    <row r="22" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="141"/>
       <c r="B22" s="141"/>
       <c r="C22" s="141"/>
@@ -5705,7 +5711,7 @@
       <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
     </row>
-    <row r="23" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="141" t="s">
         <v>25</v>
       </c>
@@ -5746,7 +5752,7 @@
       <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
     </row>
-    <row r="24" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="141"/>
       <c r="B24" s="141"/>
       <c r="C24" s="141"/>
@@ -5766,7 +5772,7 @@
       <c r="Q24" s="41"/>
       <c r="R24" s="41"/>
     </row>
-    <row r="25" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>12</v>
       </c>
@@ -5792,7 +5798,7 @@
       <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
     </row>
-    <row r="26" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="245" t="s">
         <v>15</v>
       </c>
@@ -5844,7 +5850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="232" t="s">
         <v>35</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="232" t="s">
         <v>19</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="232" t="s">
         <v>36</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="232" t="s">
         <v>37</v>
       </c>
@@ -6087,7 +6093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="232" t="s">
         <v>38</v>
       </c>
@@ -6148,7 +6154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="232" t="s">
         <v>130</v>
       </c>
@@ -6209,7 +6215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="232" t="s">
         <v>39</v>
       </c>
@@ -6270,7 +6276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="228"/>
       <c r="B34" s="229"/>
       <c r="C34" s="250"/>
@@ -6327,7 +6333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="190" t="s">
         <v>30</v>
       </c>
@@ -6379,7 +6385,7 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="41"/>
     </row>
-    <row r="36" spans="1:18" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="255" t="s">
         <v>40</v>
       </c>
@@ -6428,7 +6434,7 @@
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
     </row>
-    <row r="37" spans="1:18" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6442,16 +6448,16 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O41" s="5"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O45" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="25"/>
       <c r="C59" s="14">
@@ -6480,7 +6486,7 @@
       </c>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>125</v>
       </c>
@@ -6518,7 +6524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>126</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="19"/>
@@ -6568,7 +6574,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>127</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
         <v>128</v>
       </c>
@@ -6663,23 +6669,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="10" width="6.7109375" customWidth="1"/>
+    <col min="3" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="272" t="str">
+    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="275" t="str">
         <f>Sieblinie!A1</f>
         <v>BAM
 7.4</v>
@@ -6696,13 +6702,13 @@
       <c r="I1" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="314">
+      <c r="J1" s="279">
         <v>43766</v>
       </c>
-      <c r="K1" s="313"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="273"/>
+      <c r="K1" s="280"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="276"/>
       <c r="B2" s="166"/>
       <c r="C2" s="166"/>
       <c r="D2" s="166"/>
@@ -6719,7 +6725,7 @@
         <v>Haamkens</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -6732,7 +6738,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -6750,7 +6756,7 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
     </row>
-    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -6768,7 +6774,7 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>45</v>
       </c>
@@ -6794,7 +6800,7 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
     </row>
-    <row r="7" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -6807,7 +6813,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
     </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>103</v>
       </c>
@@ -6825,7 +6831,7 @@
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="171" t="s">
         <v>141</v>
       </c>
@@ -6852,7 +6858,7 @@
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>105</v>
       </c>
@@ -6875,7 +6881,7 @@
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -6888,7 +6894,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="181" t="s">
         <v>107</v>
       </c>
@@ -6908,7 +6914,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -6921,7 +6927,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="163" t="s">
         <v>108</v>
       </c>
@@ -6954,7 +6960,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="134" t="s">
         <v>110</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>3.8810000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -7009,7 +7015,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="181" t="s">
         <v>111</v>
       </c>
@@ -7024,7 +7030,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -7037,7 +7043,7 @@
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>48</v>
       </c>
@@ -7060,7 +7066,7 @@
       <c r="J19" s="49"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="63"/>
       <c r="B20" s="59"/>
       <c r="C20" s="64"/>
@@ -7075,7 +7081,7 @@
       <c r="J20" s="191"/>
       <c r="K20" s="192"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="134"/>
       <c r="B21" s="135"/>
       <c r="C21" s="37" t="s">
@@ -7096,11 +7102,11 @@
       <c r="J21" s="37"/>
       <c r="K21" s="38"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="289" t="s">
+    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="287" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="290"/>
+      <c r="B22" s="288"/>
       <c r="C22" s="72">
         <v>300</v>
       </c>
@@ -7120,7 +7126,7 @@
       <c r="J22" s="29"/>
       <c r="K22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>62</v>
       </c>
@@ -7138,11 +7144,11 @@
         <v>180</v>
       </c>
       <c r="H23" s="196"/>
-      <c r="I23" s="277"/>
-      <c r="J23" s="278"/>
-      <c r="K23" s="279"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="299"/>
+      <c r="J23" s="300"/>
+      <c r="K23" s="301"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>64</v>
       </c>
@@ -7159,11 +7165,11 @@
         <v>65</v>
       </c>
       <c r="H24" s="196"/>
-      <c r="I24" s="277"/>
-      <c r="J24" s="278"/>
-      <c r="K24" s="279"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="299"/>
+      <c r="J24" s="300"/>
+      <c r="K24" s="301"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>67</v>
       </c>
@@ -7180,15 +7186,17 @@
         <v>20</v>
       </c>
       <c r="H25" s="196"/>
-      <c r="I25" s="277"/>
-      <c r="J25" s="278"/>
-      <c r="K25" s="279"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="299"/>
+      <c r="J25" s="300"/>
+      <c r="K25" s="301"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="59"/>
       <c r="C26" s="83">
         <v>301</v>
       </c>
@@ -7202,13 +7210,13 @@
         <v>110.1</v>
       </c>
       <c r="H26" s="196"/>
-      <c r="I26" s="286" t="s">
+      <c r="I26" s="284" t="s">
         <v>137</v>
       </c>
-      <c r="J26" s="287"/>
-      <c r="K26" s="288"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="285"/>
+      <c r="K26" s="286"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>117</v>
       </c>
@@ -7227,21 +7235,21 @@
         <v>8.1</v>
       </c>
       <c r="H27" s="196"/>
-      <c r="I27" s="293" t="s">
+      <c r="I27" s="291" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="294"/>
-      <c r="K27" s="295"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="291" t="s">
+      <c r="J27" s="292"/>
+      <c r="K27" s="293"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="289" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="292"/>
-      <c r="C28" s="280">
+      <c r="B28" s="290"/>
+      <c r="C28" s="294">
         <v>789.6</v>
       </c>
-      <c r="D28" s="282"/>
+      <c r="D28" s="295"/>
       <c r="E28" s="197" t="s">
         <v>65</v>
       </c>
@@ -7251,11 +7259,11 @@
         <v>414.20000000000005</v>
       </c>
       <c r="H28" s="196"/>
-      <c r="I28" s="277"/>
-      <c r="J28" s="278"/>
-      <c r="K28" s="279"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="299"/>
+      <c r="J28" s="300"/>
+      <c r="K28" s="301"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="97" t="s">
         <v>73</v>
       </c>
@@ -7276,11 +7284,11 @@
       <c r="H29" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="I29" s="277"/>
-      <c r="J29" s="278"/>
-      <c r="K29" s="279"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="299"/>
+      <c r="J29" s="300"/>
+      <c r="K29" s="301"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="203" t="s">
         <v>76</v>
       </c>
@@ -7302,14 +7310,14 @@
         <f>Sieblinie!D27</f>
         <v>0</v>
       </c>
-      <c r="I30" s="283" t="str">
+      <c r="I30" s="281" t="str">
         <f>Sieblinie!L12</f>
         <v>Quarz</v>
       </c>
-      <c r="J30" s="284"/>
-      <c r="K30" s="285"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="282"/>
+      <c r="K30" s="283"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="203" t="s">
         <v>77</v>
       </c>
@@ -7331,14 +7339,14 @@
         <f>Sieblinie!C28</f>
         <v>20</v>
       </c>
-      <c r="I31" s="283" t="str">
+      <c r="I31" s="281" t="str">
         <f>Sieblinie!L13</f>
         <v>Okrilla</v>
       </c>
-      <c r="J31" s="284"/>
-      <c r="K31" s="285"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="282"/>
+      <c r="K31" s="283"/>
+    </row>
+    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="203" t="s">
         <v>119</v>
       </c>
@@ -7360,15 +7368,15 @@
         <f>Sieblinie!C29</f>
         <v>11.5</v>
       </c>
-      <c r="I32" s="283" t="str">
+      <c r="I32" s="281" t="str">
         <f>Sieblinie!L14</f>
         <v>Okrilla</v>
       </c>
-      <c r="J32" s="284"/>
-      <c r="K32" s="285"/>
+      <c r="J32" s="282"/>
+      <c r="K32" s="283"/>
       <c r="M32" s="12"/>
     </row>
-    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="203" t="s">
         <v>81</v>
       </c>
@@ -7390,15 +7398,15 @@
         <f>Sieblinie!C30</f>
         <v>11.5</v>
       </c>
-      <c r="I33" s="283" t="str">
+      <c r="I33" s="281" t="str">
         <f>Sieblinie!L15</f>
         <v>Okrilla</v>
       </c>
-      <c r="J33" s="284"/>
-      <c r="K33" s="285"/>
+      <c r="J33" s="282"/>
+      <c r="K33" s="283"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="203" t="s">
         <v>83</v>
       </c>
@@ -7420,14 +7428,14 @@
         <f>Sieblinie!C31</f>
         <v>7.5</v>
       </c>
-      <c r="I34" s="283" t="str">
+      <c r="I34" s="281" t="str">
         <f>Sieblinie!L16</f>
         <v>Okrilla</v>
       </c>
-      <c r="J34" s="284"/>
-      <c r="K34" s="285"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="282"/>
+      <c r="K34" s="283"/>
+    </row>
+    <row r="35" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="203" t="s">
         <v>131</v>
       </c>
@@ -7449,14 +7457,14 @@
         <f>Sieblinie!C32</f>
         <v>7.5</v>
       </c>
-      <c r="I35" s="283" t="str">
+      <c r="I35" s="281" t="str">
         <f>Sieblinie!L17</f>
         <v>Okrilla</v>
       </c>
-      <c r="J35" s="284"/>
-      <c r="K35" s="285"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="282"/>
+      <c r="K35" s="283"/>
+    </row>
+    <row r="36" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="203" t="s">
         <v>120</v>
       </c>
@@ -7478,13 +7486,13 @@
         <f>Sieblinie!C33</f>
         <v>42</v>
       </c>
-      <c r="I36" s="283" t="s">
+      <c r="I36" s="281" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="284"/>
-      <c r="K36" s="285"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="282"/>
+      <c r="K36" s="283"/>
+    </row>
+    <row r="37" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="203"/>
       <c r="B37" s="131"/>
       <c r="C37" s="207" t="s">
@@ -7501,12 +7509,12 @@
       <c r="H37" s="209" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="277"/>
-      <c r="J37" s="278"/>
-      <c r="K37" s="279"/>
+      <c r="I37" s="299"/>
+      <c r="J37" s="300"/>
+      <c r="K37" s="301"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="72"/>
       <c r="B38" s="65"/>
       <c r="C38" s="210" t="s">
@@ -7523,12 +7531,12 @@
       <c r="H38" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="I38" s="280"/>
-      <c r="J38" s="281"/>
-      <c r="K38" s="282"/>
+      <c r="I38" s="294"/>
+      <c r="J38" s="278"/>
+      <c r="K38" s="295"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63" t="s">
         <v>91</v>
       </c>
@@ -7547,11 +7555,11 @@
         <v>1000</v>
       </c>
       <c r="H39" s="78"/>
-      <c r="I39" s="280"/>
-      <c r="J39" s="281"/>
-      <c r="K39" s="282"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="294"/>
+      <c r="J39" s="278"/>
+      <c r="K39" s="295"/>
+    </row>
+    <row r="40" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63" t="s">
         <v>121</v>
       </c>
@@ -7568,11 +7576,11 @@
         <v>65</v>
       </c>
       <c r="H40" s="65"/>
-      <c r="I40" s="280"/>
-      <c r="J40" s="281"/>
-      <c r="K40" s="282"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="294"/>
+      <c r="J40" s="278"/>
+      <c r="K40" s="295"/>
+    </row>
+    <row r="41" spans="1:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="134" t="s">
         <v>122</v>
       </c>
@@ -7589,11 +7597,11 @@
         <v>65</v>
       </c>
       <c r="H41" s="38"/>
-      <c r="I41" s="274"/>
-      <c r="J41" s="275"/>
-      <c r="K41" s="276"/>
-    </row>
-    <row r="42" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="296"/>
+      <c r="J41" s="297"/>
+      <c r="K41" s="298"/>
+    </row>
+    <row r="42" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
@@ -7606,7 +7614,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7619,11 +7627,11 @@
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="269"/>
       <c r="B44" s="269"/>
-      <c r="C44" s="311"/>
-      <c r="D44" s="312"/>
+      <c r="C44" s="273"/>
+      <c r="D44" s="274"/>
       <c r="E44" s="271"/>
       <c r="F44" s="271"/>
       <c r="G44" s="271"/>
@@ -7633,15 +7641,15 @@
       <c r="K44" s="271"/>
       <c r="L44" s="271"/>
     </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="309" t="s">
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="309"/>
-      <c r="C45" s="309"/>
-      <c r="D45" s="309"/>
-      <c r="E45" s="309"/>
-      <c r="F45" s="309"/>
+      <c r="B45" s="277"/>
+      <c r="C45" s="277"/>
+      <c r="D45" s="277"/>
+      <c r="E45" s="277"/>
+      <c r="F45" s="277"/>
       <c r="G45" s="260"/>
       <c r="H45" s="261"/>
       <c r="I45" s="259"/>
@@ -7649,15 +7657,15 @@
       <c r="K45" s="259"/>
       <c r="L45" s="259"/>
     </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="281" t="s">
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="278" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="281"/>
-      <c r="C46" s="281"/>
-      <c r="D46" s="310"/>
-      <c r="E46" s="310"/>
-      <c r="F46" s="310"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="278"/>
+      <c r="D46" s="272"/>
+      <c r="E46" s="272"/>
+      <c r="F46" s="272"/>
       <c r="G46" s="263"/>
       <c r="H46" s="264"/>
       <c r="I46" s="262"/>
@@ -7665,7 +7673,7 @@
       <c r="K46" s="259"/>
       <c r="L46" s="259"/>
     </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="265"/>
       <c r="B47" s="262"/>
       <c r="C47" s="262"/>
@@ -7679,7 +7687,7 @@
       <c r="K47" s="259"/>
       <c r="L47" s="259"/>
     </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="265"/>
       <c r="B48" s="262"/>
       <c r="C48" s="262"/>
@@ -7693,7 +7701,7 @@
       <c r="K48" s="262"/>
       <c r="L48" s="262"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -7707,11 +7715,21 @@
       <c r="K49" s="41"/>
       <c r="L49" s="41"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="A45:F45"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="J1:K1"/>
@@ -7728,16 +7746,6 @@
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.62992125984251968" bottom="0" header="0.51181102362204722" footer="0.23622047244094491"/>
@@ -7752,28 +7760,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="1.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="1.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="1.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="272" t="str">
+    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="275" t="str">
         <f>Rezeptur!A1</f>
         <v>BAM
 7.4</v>
@@ -7791,14 +7799,14 @@
       <c r="J1" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="296">
+      <c r="K1" s="302">
         <f>Sieblinie!L1</f>
         <v>43766</v>
       </c>
-      <c r="L1" s="297"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="273"/>
+      <c r="L1" s="303"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="276"/>
       <c r="B2" s="35" t="s">
         <v>43</v>
       </c>
@@ -7818,7 +7826,7 @@
       </c>
       <c r="L2" s="38"/>
     </row>
-    <row r="3" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -7832,7 +7840,7 @@
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>4</v>
       </c>
@@ -7853,7 +7861,7 @@
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -7875,7 +7883,7 @@
       </c>
       <c r="L5" s="42"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>45</v>
       </c>
@@ -7896,7 +7904,7 @@
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -7910,7 +7918,7 @@
       <c r="K7" s="40"/>
       <c r="L7" s="40"/>
     </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>46</v>
       </c>
@@ -7928,7 +7936,7 @@
       <c r="K8" s="46"/>
       <c r="L8" s="45"/>
     </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>48</v>
       </c>
@@ -7950,7 +7958,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="52"/>
     </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53"/>
       <c r="B10" s="54"/>
       <c r="C10" s="55" t="s">
@@ -7978,7 +7986,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="63"/>
       <c r="B11" s="59"/>
       <c r="C11" s="64"/>
@@ -7998,7 +8006,7 @@
       <c r="K11" s="267"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="70" t="s">
         <v>57</v>
       </c>
@@ -8024,7 +8032,7 @@
       <c r="K12" s="69"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
         <v>61</v>
       </c>
@@ -8053,7 +8061,7 @@
       <c r="K13" s="61"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
         <v>62</v>
       </c>
@@ -8080,7 +8088,7 @@
       <c r="K14" s="268"/>
       <c r="L14" s="82"/>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
         <v>64</v>
       </c>
@@ -8104,7 +8112,7 @@
       <c r="K15" s="85"/>
       <c r="L15" s="59"/>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>67</v>
       </c>
@@ -8128,7 +8136,7 @@
       <c r="K16" s="87"/>
       <c r="L16" s="62"/>
     </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
         <v>69</v>
       </c>
@@ -8160,7 +8168,7 @@
       </c>
       <c r="L17" s="62"/>
     </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
         <v>147</v>
       </c>
@@ -8193,7 +8201,7 @@
       </c>
       <c r="L18" s="95"/>
     </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
         <v>71</v>
       </c>
@@ -8217,7 +8225,7 @@
       <c r="K19" s="85"/>
       <c r="L19" s="59"/>
     </row>
-    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="97" t="s">
         <v>73</v>
       </c>
@@ -8248,7 +8256,7 @@
       </c>
       <c r="L20" s="107"/>
     </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="108" t="s">
         <v>76</v>
       </c>
@@ -8281,7 +8289,7 @@
       <c r="K21" s="112"/>
       <c r="L21" s="113"/>
     </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="108" t="s">
         <v>77</v>
       </c>
@@ -8314,7 +8322,7 @@
       <c r="K22" s="85"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="108" t="s">
         <v>79</v>
       </c>
@@ -8350,7 +8358,7 @@
       </c>
       <c r="L23" s="117"/>
     </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="108" t="s">
         <v>81</v>
       </c>
@@ -8383,7 +8391,7 @@
       <c r="K24" s="92"/>
       <c r="L24" s="113"/>
     </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108" t="s">
         <v>83</v>
       </c>
@@ -8416,7 +8424,7 @@
       <c r="K25" s="120"/>
       <c r="L25" s="59"/>
     </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="108" t="s">
         <v>85</v>
       </c>
@@ -8447,7 +8455,7 @@
       <c r="K26" s="76"/>
       <c r="L26" s="124"/>
     </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="108" t="s">
         <v>86</v>
       </c>
@@ -8478,7 +8486,7 @@
       <c r="K27" s="126"/>
       <c r="L27" s="117"/>
     </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="108" t="s">
         <v>87</v>
       </c>
@@ -8502,7 +8510,7 @@
       <c r="K28" s="92"/>
       <c r="L28" s="113"/>
     </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="130" t="s">
         <v>65</v>
       </c>
@@ -8528,7 +8536,7 @@
       <c r="K29" s="85"/>
       <c r="L29" s="59"/>
     </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="83" t="s">
         <v>65</v>
       </c>
@@ -8556,7 +8564,7 @@
       </c>
       <c r="L30" s="117"/>
     </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="134" t="s">
         <v>91</v>
       </c>
@@ -8583,7 +8591,7 @@
       <c r="K31" s="92"/>
       <c r="L31" s="113"/>
     </row>
-    <row r="32" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="141"/>
       <c r="B32" s="141"/>
       <c r="C32" s="142"/>
@@ -8597,7 +8605,7 @@
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
     </row>
-    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>92</v>
       </c>
@@ -8609,16 +8617,16 @@
       </c>
       <c r="F33" s="145"/>
       <c r="G33" s="145"/>
-      <c r="H33" s="304">
+      <c r="H33" s="310">
         <f>K1</f>
         <v>43766</v>
       </c>
-      <c r="I33" s="304"/>
-      <c r="J33" s="304"/>
+      <c r="I33" s="310"/>
+      <c r="J33" s="310"/>
       <c r="K33" s="145"/>
       <c r="L33" s="146"/>
     </row>
-    <row r="34" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="147" t="s">
         <v>94</v>
       </c>
@@ -8627,16 +8635,16 @@
         <v>95</v>
       </c>
       <c r="D34" s="150"/>
-      <c r="E34" s="307"/>
-      <c r="F34" s="308"/>
-      <c r="G34" s="307"/>
-      <c r="H34" s="308"/>
+      <c r="E34" s="313"/>
+      <c r="F34" s="314"/>
+      <c r="G34" s="313"/>
+      <c r="H34" s="314"/>
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
       <c r="K34" s="26"/>
       <c r="L34" s="27"/>
     </row>
-    <row r="35" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="151" t="s">
         <v>96</v>
       </c>
@@ -8645,16 +8653,16 @@
         <v>59</v>
       </c>
       <c r="D35" s="153"/>
-      <c r="E35" s="305"/>
-      <c r="F35" s="306"/>
-      <c r="G35" s="305"/>
-      <c r="H35" s="306"/>
+      <c r="E35" s="311"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="311"/>
+      <c r="H35" s="312"/>
       <c r="I35" s="88"/>
       <c r="J35" s="88"/>
       <c r="K35" s="88"/>
       <c r="L35" s="62"/>
     </row>
-    <row r="36" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="151" t="s">
         <v>97</v>
       </c>
@@ -8674,7 +8682,7 @@
       <c r="K36" s="106"/>
       <c r="L36" s="107"/>
     </row>
-    <row r="37" spans="1:12" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154" t="s">
         <v>99</v>
       </c>
@@ -8683,16 +8691,16 @@
         <v>100</v>
       </c>
       <c r="D37" s="157"/>
-      <c r="E37" s="298">
+      <c r="E37" s="304">
         <f>ROUND(E35/E36,-1)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="299"/>
-      <c r="G37" s="298">
+      <c r="F37" s="305"/>
+      <c r="G37" s="304">
         <f>ROUND(G35/E36,-1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="299"/>
+      <c r="H37" s="305"/>
       <c r="I37" s="158">
         <f>ROUND(I35/E36,-1)</f>
         <v>0</v>
@@ -8710,7 +8718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
         <v>101</v>
       </c>
@@ -8719,22 +8727,22 @@
         <v>100</v>
       </c>
       <c r="D38" s="162"/>
-      <c r="E38" s="300">
+      <c r="E38" s="306">
         <f>ROUND(AVERAGE(E37:I37),-1)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="301"/>
-      <c r="G38" s="301"/>
-      <c r="H38" s="301"/>
-      <c r="I38" s="302"/>
-      <c r="J38" s="300">
+      <c r="F38" s="307"/>
+      <c r="G38" s="307"/>
+      <c r="H38" s="307"/>
+      <c r="I38" s="308"/>
+      <c r="J38" s="306">
         <f>ROUND(AVERAGE(J37:L37),-1)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="301"/>
-      <c r="L38" s="303"/>
-    </row>
-    <row r="39" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="307"/>
+      <c r="L38" s="309"/>
+    </row>
+    <row r="39" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="269"/>
       <c r="B39" s="269"/>
       <c r="C39" s="270"/>
@@ -8748,15 +8756,15 @@
       <c r="K39" s="271"/>
       <c r="L39" s="271"/>
     </row>
-    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="309" t="s">
+    <row r="40" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="309"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
-      <c r="F40" s="309"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="277"/>
+      <c r="D40" s="277"/>
+      <c r="E40" s="277"/>
+      <c r="F40" s="277"/>
       <c r="G40" s="260"/>
       <c r="H40" s="261"/>
       <c r="I40" s="259"/>
@@ -8764,15 +8772,15 @@
       <c r="K40" s="259"/>
       <c r="L40" s="259"/>
     </row>
-    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="281" t="s">
+    <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="278" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="281"/>
-      <c r="C41" s="281"/>
-      <c r="D41" s="310"/>
-      <c r="E41" s="310"/>
-      <c r="F41" s="310"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="278"/>
+      <c r="D41" s="272"/>
+      <c r="E41" s="272"/>
+      <c r="F41" s="272"/>
       <c r="G41" s="263"/>
       <c r="H41" s="264"/>
       <c r="I41" s="262"/>
@@ -8780,7 +8788,7 @@
       <c r="K41" s="259"/>
       <c r="L41" s="259"/>
     </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="265"/>
       <c r="B42" s="262"/>
       <c r="C42" s="262"/>
@@ -8794,7 +8802,7 @@
       <c r="K42" s="259"/>
       <c r="L42" s="259"/>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="265"/>
       <c r="B43" s="262"/>
       <c r="C43" s="262"/>
@@ -8808,7 +8816,7 @@
       <c r="K43" s="262"/>
       <c r="L43" s="262"/>
     </row>
-    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -8822,7 +8830,7 @@
       <c r="K44" s="41"/>
       <c r="L44" s="41"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
